--- a/data/trans_dic/P2C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2743524061363121</v>
+        <v>0.2742495043958281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4328926166246971</v>
+        <v>0.4302070235259657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3057376727070662</v>
+        <v>0.3006241440746744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1066565933033092</v>
+        <v>0.1049690048587724</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3453243714154463</v>
+        <v>0.3434571472681884</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4820095181514249</v>
+        <v>0.4820215464043929</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3359659466177385</v>
+        <v>0.3302146842611333</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1496895322816803</v>
+        <v>0.1494808021617266</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3187607932710194</v>
+        <v>0.3208603463825</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.467521314611744</v>
+        <v>0.4658614504584039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3278574848325171</v>
+        <v>0.3291475676865261</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1348757205015618</v>
+        <v>0.1361443896351566</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3474675437552462</v>
+        <v>0.3423841640201405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5060649598251592</v>
+        <v>0.5076031247072993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3795299481698971</v>
+        <v>0.3777006759189926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1614380289277394</v>
+        <v>0.1592582979746244</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4208514588982668</v>
+        <v>0.4146484935784614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5605148335852397</v>
+        <v>0.5603125536014704</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4062335769416298</v>
+        <v>0.4077506119365186</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1967499037814588</v>
+        <v>0.198623173830073</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3703249699943294</v>
+        <v>0.3717183362776837</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5229601989150993</v>
+        <v>0.5222921265746097</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3804199505285145</v>
+        <v>0.3804818327712843</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1711202396808771</v>
+        <v>0.1719021339645008</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2778583474822074</v>
+        <v>0.2761596533835206</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4517627444371098</v>
+        <v>0.4519340764844064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.306760723577519</v>
+        <v>0.3061593553053774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.142069084282945</v>
+        <v>0.1393982457788081</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3183033801418185</v>
+        <v>0.3167987567324659</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5217390467216522</v>
+        <v>0.5238924178850995</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3990647564316708</v>
+        <v>0.4010618943888853</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2054908971499903</v>
+        <v>0.2059901066745499</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3056729372289734</v>
+        <v>0.3062210191700284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4974915135779494</v>
+        <v>0.4980505547601631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3646360166425761</v>
+        <v>0.3647911199343875</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1803905605049769</v>
+        <v>0.1823305221811375</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3386007627075139</v>
+        <v>0.3387510685639611</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5142946343418388</v>
+        <v>0.5158026451146133</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3668333621475338</v>
+        <v>0.3686666111648629</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1955660148200285</v>
+        <v>0.1932804900696482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3777470156154327</v>
+        <v>0.3798539793867969</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5892755315571239</v>
+        <v>0.5884017247008037</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4663630360661356</v>
+        <v>0.4623472387178136</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.250729990785392</v>
+        <v>0.2530756227618216</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3495574474878928</v>
+        <v>0.3494289505719472</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.542689401540136</v>
+        <v>0.5417397399053953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4085858078149027</v>
+        <v>0.4088615495232006</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2152970556776988</v>
+        <v>0.2170456855517373</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.251028496532118</v>
+        <v>0.2511988785387407</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4123932265073598</v>
+        <v>0.4091984760726558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2776034991238649</v>
+        <v>0.2761833376539907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09097562907405833</v>
+        <v>0.08979087154265059</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3018358830265869</v>
+        <v>0.2976945127835692</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4938831658907505</v>
+        <v>0.4942249666466751</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3641555560251198</v>
+        <v>0.3664410181773655</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1510429863508555</v>
+        <v>0.1519993487846376</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2885366373735312</v>
+        <v>0.287266716171258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4623186250627586</v>
+        <v>0.4619312563689737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3325279743037318</v>
+        <v>0.3316200327645217</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1289864177547288</v>
+        <v>0.1287182943086948</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3209156960822903</v>
+        <v>0.3206380300595918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4861438220929158</v>
+        <v>0.4866820607892542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3452184488987619</v>
+        <v>0.3456810714884615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1449489186838593</v>
+        <v>0.1414721900118284</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3732682398579105</v>
+        <v>0.3699975401625029</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5705037325870301</v>
+        <v>0.5741461685471217</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.435597304995113</v>
+        <v>0.4364334780982191</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2009845347281683</v>
+        <v>0.2018624755571943</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3364880298807398</v>
+        <v>0.3363299179769026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5179186440793675</v>
+        <v>0.5128941683184899</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3837295736262717</v>
+        <v>0.3840511898300732</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1653224727717918</v>
+        <v>0.1637217355094767</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2401362336216276</v>
+        <v>0.2401183112197644</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3617010562494107</v>
+        <v>0.3605799497926797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2412254184407305</v>
+        <v>0.2400419869571544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1020933734083726</v>
+        <v>0.1016992279108617</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2969428773433009</v>
+        <v>0.2977012926304301</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4337618659238198</v>
+        <v>0.4340974981542847</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3179564706150399</v>
+        <v>0.3167023654440033</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1278670226789207</v>
+        <v>0.1264138337149612</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2788571670100445</v>
+        <v>0.2783497693071478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4078849445765987</v>
+        <v>0.4082683513717378</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2885052225216734</v>
+        <v>0.2873171932954278</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1208416073638235</v>
+        <v>0.1201626672597653</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2972487393523225</v>
+        <v>0.2955518065593663</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.425074142728828</v>
+        <v>0.4249273586143978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2997458584241867</v>
+        <v>0.2947276042015389</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1458624641323436</v>
+        <v>0.1442752977630606</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3555363188852515</v>
+        <v>0.3563646363012994</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4934064954555221</v>
+        <v>0.4943988664984527</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.378374439017883</v>
+        <v>0.375856782730379</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1635168221174193</v>
+        <v>0.1632846758211977</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.320034220956598</v>
+        <v>0.3189786875581341</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4528938505441656</v>
+        <v>0.4541370209027053</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3290884103198072</v>
+        <v>0.3304348157860145</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1486687995619522</v>
+        <v>0.1476061142121392</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3875265367147412</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.180295013380705</v>
+        <v>0.1802950133807049</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3188761714903631</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4306056819988066</v>
+        <v>0.4298303422497715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2978175280825964</v>
+        <v>0.2972640182538714</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1232757738372352</v>
+        <v>0.1226979638777153</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4990858184093719</v>
+        <v>0.4971624396607692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3715240385025101</v>
+        <v>0.3711729542213033</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1687488209205183</v>
+        <v>0.1686600352278033</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4704590687935061</v>
+        <v>0.470360250276911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.339647687970836</v>
+        <v>0.3396100978662916</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1509471328248174</v>
+        <v>0.1505712127971679</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4650094289289327</v>
+        <v>0.4643886383334656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3292264321397705</v>
+        <v>0.3277334337782356</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1479414703008629</v>
+        <v>0.1484224299347068</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5336722321268663</v>
+        <v>0.5333077586825593</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4055332440909303</v>
+        <v>0.4054509934336432</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1916966172411666</v>
+        <v>0.1917213703148506</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4954792255067716</v>
+        <v>0.494765130717205</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3625373781421774</v>
+        <v>0.3630531920100895</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1679826492599588</v>
+        <v>0.1674285552091248</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>190404</v>
+        <v>190332</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>304527</v>
+        <v>302637</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>206312</v>
+        <v>202861</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>73669</v>
+        <v>72503</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>237704</v>
+        <v>236419</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>335985</v>
+        <v>335993</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>226051</v>
+        <v>222181</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>109899</v>
+        <v>109746</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>440643</v>
+        <v>443545</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>654772</v>
+        <v>652448</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>441834</v>
+        <v>443572</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>192183</v>
+        <v>193991</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>241147</v>
+        <v>237619</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>356001</v>
+        <v>357083</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>256107</v>
+        <v>254872</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>111507</v>
+        <v>110001</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>289694</v>
+        <v>285424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>390707</v>
+        <v>390566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>273330</v>
+        <v>274351</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>144450</v>
+        <v>145825</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>511924</v>
+        <v>513850</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>732416</v>
+        <v>731480</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>512669</v>
+        <v>512752</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>243827</v>
+        <v>244941</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>267244</v>
+        <v>265610</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>459871</v>
+        <v>460045</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>313642</v>
+        <v>313027</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>149019</v>
+        <v>146217</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>308243</v>
+        <v>306786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>538531</v>
+        <v>540753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>416190</v>
+        <v>418273</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>220178</v>
+        <v>220713</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>590008</v>
+        <v>591066</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1019923</v>
+        <v>1021069</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>753099</v>
+        <v>753419</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>382499</v>
+        <v>386612</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>325666</v>
+        <v>325811</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>523525</v>
+        <v>525060</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>375062</v>
+        <v>376936</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>205133</v>
+        <v>202735</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>365808</v>
+        <v>367848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>608241</v>
+        <v>607339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>486376</v>
+        <v>482188</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>268651</v>
+        <v>271164</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>674713</v>
+        <v>674465</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1112584</v>
+        <v>1110637</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>843870</v>
+        <v>844440</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>456514</v>
+        <v>460222</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>170325</v>
+        <v>170441</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>312439</v>
+        <v>310018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>210854</v>
+        <v>209776</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>73060</v>
+        <v>72109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>206408</v>
+        <v>203576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>383833</v>
+        <v>384099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>285866</v>
+        <v>287660</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>122686</v>
+        <v>123463</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>393088</v>
+        <v>391358</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>709565</v>
+        <v>708971</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>513610</v>
+        <v>512208</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>208356</v>
+        <v>207923</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>217744</v>
+        <v>217556</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>368314</v>
+        <v>368722</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>262211</v>
+        <v>262563</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116405</v>
+        <v>113612</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>255256</v>
+        <v>253019</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>443381</v>
+        <v>446211</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>341949</v>
+        <v>342605</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>163251</v>
+        <v>163965</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>458414</v>
+        <v>458199</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>794900</v>
+        <v>787188</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>592695</v>
+        <v>593191</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>267051</v>
+        <v>264465</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>226262</v>
+        <v>226245</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>342798</v>
+        <v>341736</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>226165</v>
+        <v>225055</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101079</v>
+        <v>100689</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>308408</v>
+        <v>309196</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>456275</v>
+        <v>456628</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>331876</v>
+        <v>330567</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>143088</v>
+        <v>141462</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>552370</v>
+        <v>551365</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>815623</v>
+        <v>816390</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>571629</v>
+        <v>569275</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>254868</v>
+        <v>253436</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>280074</v>
+        <v>278475</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>402859</v>
+        <v>402720</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>281032</v>
+        <v>276327</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144413</v>
+        <v>142841</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>369264</v>
+        <v>370125</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>519015</v>
+        <v>520059</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>394939</v>
+        <v>392311</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>182982</v>
+        <v>182722</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>633935</v>
+        <v>631844</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>905625</v>
+        <v>908111</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>652038</v>
+        <v>654706</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>313558</v>
+        <v>311317</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1475591</v>
+        <v>1472934</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1010897</v>
+        <v>1009018</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>435504</v>
+        <v>433463</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1775902</v>
+        <v>1769058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1316883</v>
+        <v>1315638</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>630607</v>
+        <v>630275</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3286198</v>
+        <v>3285508</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2356779</v>
+        <v>2356518</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1097343</v>
+        <v>1094610</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1593485</v>
+        <v>1591357</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1117510</v>
+        <v>1112442</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>522642</v>
+        <v>524341</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1898971</v>
+        <v>1897674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1437430</v>
+        <v>1437138</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>716361</v>
+        <v>716454</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3460966</v>
+        <v>3455978</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2515608</v>
+        <v>2519187</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1221186</v>
+        <v>1217158</v>
       </c>
     </row>
     <row r="24">
